--- a/RELATIONEN_GruppeA-WIESINGER-SCHADLER.xlsx
+++ b/RELATIONEN_GruppeA-WIESINGER-SCHADLER.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\source\repos\chrizz92\dbi_erd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DAC1F47-B0A0-4F84-9806-CEAE4F820D72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{253B25D9-8F50-4CFC-AE1E-2ABE2CB1DA7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{26E05759-79D0-42AD-8440-BC669FF904E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$G$4:$G$13</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -146,9 +149,6 @@
     <t>Zahlbetrag</t>
   </si>
   <si>
-    <t>Annahme: Keine Neuwahl innerhalb eines Schuljahres</t>
-  </si>
-  <si>
     <t>SSW</t>
   </si>
   <si>
@@ -165,6 +165,9 @@
   </si>
   <si>
     <t>Annahme: Je Zahlungsverpflichtung wird ein Betrag pro Tag gebucht</t>
+  </si>
+  <si>
+    <t>Annahme: Neuwahl innerhalb eines Schuljahres möglich</t>
   </si>
 </sst>
 </file>
@@ -444,6 +447,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -454,12 +463,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -787,8 +790,8 @@
   </sheetPr>
   <dimension ref="B2:Q39"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="S40" sqref="S40"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -811,43 +814,43 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B2" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
+      <c r="B2" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
     </row>
     <row r="4" spans="2:17" ht="18" x14ac:dyDescent="0.35">
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="31"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="33"/>
       <c r="G4" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="32" t="s">
+      <c r="I4" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="M4" s="32" t="s">
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="M4" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
     </row>
     <row r="5" spans="2:17" s="6" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
@@ -1077,17 +1080,17 @@
       <c r="O13" s="1"/>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="I14" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="J14" s="33"/>
-      <c r="K14" s="33"/>
-      <c r="M14" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="N14" s="34"/>
-      <c r="O14" s="34"/>
-      <c r="P14" s="34"/>
+      <c r="I14" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="M14" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="N14" s="30"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="30"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.3">
       <c r="I15" s="2"/>
@@ -1095,13 +1098,13 @@
       <c r="K15" s="2"/>
     </row>
     <row r="16" spans="2:17" ht="18" x14ac:dyDescent="0.35">
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="32"/>
+      <c r="C16" s="34"/>
       <c r="D16" s="20"/>
       <c r="E16" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F16" s="22"/>
       <c r="G16" s="23"/>
@@ -1110,13 +1113,13 @@
       </c>
       <c r="J16" s="19"/>
       <c r="K16" s="19"/>
-      <c r="M16" s="29" t="s">
+      <c r="M16" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="N16" s="30"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="31"/>
+      <c r="N16" s="32"/>
+      <c r="O16" s="32"/>
+      <c r="P16" s="32"/>
+      <c r="Q16" s="33"/>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B17" s="9" t="s">
@@ -1291,7 +1294,7 @@
         <v>4</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="24">
@@ -1868,23 +1871,23 @@
       </c>
     </row>
     <row r="39" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="E39" s="34" t="s">
+      <c r="E39" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="F39" s="30"/>
+      <c r="G39" s="30"/>
+      <c r="I39" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="F39" s="34"/>
-      <c r="G39" s="34"/>
-      <c r="I39" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="J39" s="34"/>
-      <c r="K39" s="34"/>
-      <c r="M39" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="N39" s="34"/>
-      <c r="O39" s="34"/>
-      <c r="P39" s="34"/>
-      <c r="Q39" s="34"/>
+      <c r="J39" s="30"/>
+      <c r="K39" s="30"/>
+      <c r="M39" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="N39" s="30"/>
+      <c r="O39" s="30"/>
+      <c r="P39" s="30"/>
+      <c r="Q39" s="30"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G6:G11">

--- a/RELATIONEN_GruppeA-WIESINGER-SCHADLER.xlsx
+++ b/RELATIONEN_GruppeA-WIESINGER-SCHADLER.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\source\repos\chrizz92\dbi_erd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{253B25D9-8F50-4CFC-AE1E-2ABE2CB1DA7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28E5F85E-880C-4F56-896B-EAFF30E682F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{26E05759-79D0-42AD-8440-BC669FF904E4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{26E05759-79D0-42AD-8440-BC669FF904E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle1 (2)" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$G$4:$G$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Tabelle1 (2)'!$G$3:$G$12</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="57">
   <si>
     <t>Schüler</t>
   </si>
@@ -168,6 +170,45 @@
   </si>
   <si>
     <t>Annahme: Neuwahl innerhalb eines Schuljahres möglich</t>
+  </si>
+  <si>
+    <t>IBAN</t>
+  </si>
+  <si>
+    <t>AT411100000237571500</t>
+  </si>
+  <si>
+    <t>Stv#</t>
+  </si>
+  <si>
+    <t>1.01</t>
+  </si>
+  <si>
+    <t>EG.03</t>
+  </si>
+  <si>
+    <t>EG.04</t>
+  </si>
+  <si>
+    <t>1.02</t>
+  </si>
+  <si>
+    <t>1.12</t>
+  </si>
+  <si>
+    <t>1.11</t>
+  </si>
+  <si>
+    <t>2.06</t>
+  </si>
+  <si>
+    <t>2.07</t>
+  </si>
+  <si>
+    <t>Raum#</t>
+  </si>
+  <si>
+    <t>AT411100000237571533</t>
   </si>
 </sst>
 </file>
@@ -177,7 +218,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;€&quot;\ * #,##0.00_-;\-&quot;€&quot;\ * #,##0.00_-;_-&quot;€&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,6 +262,13 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -361,7 +409,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -462,7 +510,29 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -790,8 +860,8 @@
   </sheetPr>
   <dimension ref="B2:Q39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -832,25 +902,25 @@
       <c r="O2" s="30"/>
     </row>
     <row r="4" spans="2:17" ht="18" x14ac:dyDescent="0.35">
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="33"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="36"/>
       <c r="G4" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="34" t="s">
+      <c r="I4" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="M4" s="34" t="s">
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="M4" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
     </row>
     <row r="5" spans="2:17" s="6" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
@@ -1098,10 +1168,10 @@
       <c r="K15" s="2"/>
     </row>
     <row r="16" spans="2:17" ht="18" x14ac:dyDescent="0.35">
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="34"/>
+      <c r="C16" s="37"/>
       <c r="D16" s="20"/>
       <c r="E16" s="21" t="s">
         <v>38</v>
@@ -1113,13 +1183,13 @@
       </c>
       <c r="J16" s="19"/>
       <c r="K16" s="19"/>
-      <c r="M16" s="31" t="s">
+      <c r="M16" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="N16" s="32"/>
-      <c r="O16" s="32"/>
-      <c r="P16" s="32"/>
-      <c r="Q16" s="33"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="36"/>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B17" s="9" t="s">
@@ -1903,4 +1973,1180 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="61" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D032C033-8BB0-4CE2-9A2F-1DD7309C2DFE}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:Q38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="11" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" style="3"/>
+    <col min="5" max="5" width="9.88671875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="18.21875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="13" style="3" customWidth="1"/>
+    <col min="10" max="10" width="16.5546875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="10.21875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="23.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5546875" style="3"/>
+    <col min="14" max="14" width="18.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.109375" style="3" customWidth="1"/>
+    <col min="16" max="16" width="13.88671875" style="3" customWidth="1"/>
+    <col min="17" max="16384" width="11.5546875" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B1" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+    </row>
+    <row r="3" spans="2:17" ht="18" x14ac:dyDescent="0.35">
+      <c r="B3" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="36"/>
+      <c r="G3" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="37"/>
+      <c r="J3" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="N3" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+    </row>
+    <row r="4" spans="2:17" s="6" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1</v>
+      </c>
+      <c r="K5" s="1">
+        <v>2020</v>
+      </c>
+      <c r="L5" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="N5" s="1">
+        <v>1</v>
+      </c>
+      <c r="O5" s="1">
+        <v>2020</v>
+      </c>
+      <c r="P5" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" s="1">
+        <v>3</v>
+      </c>
+      <c r="K6" s="1">
+        <v>2020</v>
+      </c>
+      <c r="L6" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="N6" s="1">
+        <v>2</v>
+      </c>
+      <c r="O6" s="1">
+        <v>2020</v>
+      </c>
+      <c r="P6" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" s="1">
+        <v>2</v>
+      </c>
+      <c r="K7" s="1">
+        <v>2019</v>
+      </c>
+      <c r="L7" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="N7" s="1">
+        <v>3</v>
+      </c>
+      <c r="O7" s="1">
+        <v>2019</v>
+      </c>
+      <c r="P7" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1</v>
+      </c>
+      <c r="K8" s="1">
+        <v>2019</v>
+      </c>
+      <c r="L8" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="N8" s="1">
+        <v>1</v>
+      </c>
+      <c r="O8" s="1">
+        <v>2019</v>
+      </c>
+      <c r="P8" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="G10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="G11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="G12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="J13" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="N13" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="O13" s="30"/>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="30"/>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="2:17" ht="18" x14ac:dyDescent="0.35">
+      <c r="B15" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="37"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="32"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="J15" s="35"/>
+      <c r="K15" s="36"/>
+      <c r="M15" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="N15" s="35"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="35"/>
+      <c r="Q15" s="36"/>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B16" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="16"/>
+      <c r="E16" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H16" s="2"/>
+      <c r="I16" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="J16" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="M16" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="N16" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="O16" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="P16" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B17" s="24">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="17"/>
+      <c r="E17" s="24">
+        <v>1</v>
+      </c>
+      <c r="F17" s="12">
+        <v>43896</v>
+      </c>
+      <c r="G17" s="1">
+        <v>5</v>
+      </c>
+      <c r="H17" s="2"/>
+      <c r="I17" s="24">
+        <v>1</v>
+      </c>
+      <c r="J17" s="12">
+        <v>43896</v>
+      </c>
+      <c r="K17" s="1">
+        <v>1</v>
+      </c>
+      <c r="M17" s="24">
+        <v>1</v>
+      </c>
+      <c r="N17" s="12">
+        <v>43896</v>
+      </c>
+      <c r="O17" s="1">
+        <v>1</v>
+      </c>
+      <c r="P17" s="12">
+        <v>43888</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B18" s="25">
+        <v>2</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="17"/>
+      <c r="E18" s="24">
+        <v>1</v>
+      </c>
+      <c r="F18" s="12">
+        <v>43927</v>
+      </c>
+      <c r="G18" s="1">
+        <v>5</v>
+      </c>
+      <c r="H18" s="2"/>
+      <c r="I18" s="24">
+        <v>1</v>
+      </c>
+      <c r="J18" s="12">
+        <v>43927</v>
+      </c>
+      <c r="K18" s="1">
+        <v>1</v>
+      </c>
+      <c r="M18" s="24">
+        <v>1</v>
+      </c>
+      <c r="N18" s="12">
+        <v>43896</v>
+      </c>
+      <c r="O18" s="1">
+        <v>2</v>
+      </c>
+      <c r="P18" s="12">
+        <v>43888</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B19" s="26">
+        <v>3</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="17"/>
+      <c r="E19" s="28">
+        <v>1</v>
+      </c>
+      <c r="F19" s="18">
+        <v>43957</v>
+      </c>
+      <c r="G19" s="1">
+        <v>5</v>
+      </c>
+      <c r="H19" s="2"/>
+      <c r="I19" s="24">
+        <v>1</v>
+      </c>
+      <c r="J19" s="18">
+        <v>43957</v>
+      </c>
+      <c r="K19" s="1">
+        <v>1</v>
+      </c>
+      <c r="M19" s="28">
+        <v>1</v>
+      </c>
+      <c r="N19" s="18">
+        <v>43896</v>
+      </c>
+      <c r="O19" s="11">
+        <v>3</v>
+      </c>
+      <c r="P19" s="12">
+        <v>43892</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B20" s="27">
+        <v>4</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="24">
+        <v>1</v>
+      </c>
+      <c r="F20" s="12">
+        <v>43988</v>
+      </c>
+      <c r="G20" s="1">
+        <v>5</v>
+      </c>
+      <c r="H20" s="2"/>
+      <c r="I20" s="24">
+        <v>1</v>
+      </c>
+      <c r="J20" s="12">
+        <v>43988</v>
+      </c>
+      <c r="K20" s="1">
+        <v>1</v>
+      </c>
+      <c r="M20" s="26">
+        <v>3</v>
+      </c>
+      <c r="N20" s="12">
+        <v>43896</v>
+      </c>
+      <c r="O20" s="1">
+        <v>1</v>
+      </c>
+      <c r="P20" s="12">
+        <v>43893</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="E21" s="25">
+        <v>2</v>
+      </c>
+      <c r="F21" s="12">
+        <v>43968</v>
+      </c>
+      <c r="G21" s="1">
+        <v>38</v>
+      </c>
+      <c r="H21" s="2"/>
+      <c r="I21" s="24">
+        <v>1</v>
+      </c>
+      <c r="J21" s="12">
+        <v>43896</v>
+      </c>
+      <c r="K21" s="1">
+        <v>2</v>
+      </c>
+      <c r="M21" s="26">
+        <v>3</v>
+      </c>
+      <c r="N21" s="12">
+        <v>43896</v>
+      </c>
+      <c r="O21" s="1">
+        <v>2</v>
+      </c>
+      <c r="P21" s="12">
+        <v>43896</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="E22" s="26">
+        <v>3</v>
+      </c>
+      <c r="F22" s="12">
+        <v>43896</v>
+      </c>
+      <c r="G22" s="1">
+        <v>25</v>
+      </c>
+      <c r="H22" s="2"/>
+      <c r="I22" s="24">
+        <v>1</v>
+      </c>
+      <c r="J22" s="12">
+        <v>43927</v>
+      </c>
+      <c r="K22" s="1">
+        <v>2</v>
+      </c>
+      <c r="M22" s="26">
+        <v>3</v>
+      </c>
+      <c r="N22" s="12">
+        <v>43896</v>
+      </c>
+      <c r="O22" s="1">
+        <v>3</v>
+      </c>
+      <c r="P22" s="12">
+        <v>43896</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="E23" s="27">
+        <v>4</v>
+      </c>
+      <c r="F23" s="12">
+        <v>43955</v>
+      </c>
+      <c r="G23" s="1">
+        <v>240</v>
+      </c>
+      <c r="H23" s="2"/>
+      <c r="I23" s="24">
+        <v>1</v>
+      </c>
+      <c r="J23" s="18">
+        <v>43957</v>
+      </c>
+      <c r="K23" s="1">
+        <v>2</v>
+      </c>
+      <c r="M23" s="24">
+        <v>1</v>
+      </c>
+      <c r="N23" s="12">
+        <v>43927</v>
+      </c>
+      <c r="O23" s="1">
+        <v>1</v>
+      </c>
+      <c r="P23" s="12">
+        <v>43906</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="24">
+        <v>1</v>
+      </c>
+      <c r="J24" s="12">
+        <v>43988</v>
+      </c>
+      <c r="K24" s="1">
+        <v>2</v>
+      </c>
+      <c r="M24" s="24">
+        <v>1</v>
+      </c>
+      <c r="N24" s="12">
+        <v>43927</v>
+      </c>
+      <c r="O24" s="1">
+        <v>2</v>
+      </c>
+      <c r="P24" s="12">
+        <v>43920</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="24">
+        <v>1</v>
+      </c>
+      <c r="J25" s="12">
+        <v>43896</v>
+      </c>
+      <c r="K25" s="1">
+        <v>3</v>
+      </c>
+      <c r="M25" s="25">
+        <v>2</v>
+      </c>
+      <c r="N25" s="12">
+        <v>43968</v>
+      </c>
+      <c r="O25" s="1">
+        <v>2</v>
+      </c>
+      <c r="P25" s="12">
+        <v>43927</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="24">
+        <v>1</v>
+      </c>
+      <c r="J26" s="12">
+        <v>43927</v>
+      </c>
+      <c r="K26" s="1">
+        <v>3</v>
+      </c>
+      <c r="M26" s="24">
+        <v>1</v>
+      </c>
+      <c r="N26" s="12">
+        <v>43927</v>
+      </c>
+      <c r="O26" s="1">
+        <v>3</v>
+      </c>
+      <c r="P26" s="12">
+        <v>43927</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="24">
+        <v>1</v>
+      </c>
+      <c r="J27" s="18">
+        <v>43957</v>
+      </c>
+      <c r="K27" s="1">
+        <v>3</v>
+      </c>
+      <c r="M27" s="24">
+        <v>1</v>
+      </c>
+      <c r="N27" s="12">
+        <v>43957</v>
+      </c>
+      <c r="O27" s="1">
+        <v>1</v>
+      </c>
+      <c r="P27" s="12">
+        <v>43927</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="24">
+        <v>1</v>
+      </c>
+      <c r="J28" s="12">
+        <v>43988</v>
+      </c>
+      <c r="K28" s="1">
+        <v>3</v>
+      </c>
+      <c r="M28" s="24">
+        <v>1</v>
+      </c>
+      <c r="N28" s="12">
+        <v>43957</v>
+      </c>
+      <c r="O28" s="1">
+        <v>3</v>
+      </c>
+      <c r="P28" s="12">
+        <v>43934</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="26">
+        <v>3</v>
+      </c>
+      <c r="J29" s="12">
+        <v>43896</v>
+      </c>
+      <c r="K29" s="1">
+        <v>1</v>
+      </c>
+      <c r="M29" s="24">
+        <v>1</v>
+      </c>
+      <c r="N29" s="12">
+        <v>43957</v>
+      </c>
+      <c r="O29" s="1">
+        <v>2</v>
+      </c>
+      <c r="P29" s="12">
+        <v>43955</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="26">
+        <v>3</v>
+      </c>
+      <c r="J30" s="12">
+        <v>43896</v>
+      </c>
+      <c r="K30" s="1">
+        <v>2</v>
+      </c>
+      <c r="M30" s="24">
+        <v>1</v>
+      </c>
+      <c r="N30" s="12">
+        <v>43988</v>
+      </c>
+      <c r="O30" s="1">
+        <v>3</v>
+      </c>
+      <c r="P30" s="12">
+        <v>43955</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="26">
+        <v>3</v>
+      </c>
+      <c r="J31" s="12">
+        <v>43896</v>
+      </c>
+      <c r="K31" s="1">
+        <v>3</v>
+      </c>
+      <c r="M31" s="24">
+        <v>1</v>
+      </c>
+      <c r="N31" s="12">
+        <v>43988</v>
+      </c>
+      <c r="O31" s="1">
+        <v>2</v>
+      </c>
+      <c r="P31" s="12">
+        <v>43968</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="25">
+        <v>2</v>
+      </c>
+      <c r="J32" s="12">
+        <v>43968</v>
+      </c>
+      <c r="K32" s="1">
+        <v>1</v>
+      </c>
+      <c r="M32" s="27">
+        <v>4</v>
+      </c>
+      <c r="N32" s="12">
+        <v>43955</v>
+      </c>
+      <c r="O32" s="1">
+        <v>1</v>
+      </c>
+      <c r="P32" s="12">
+        <v>43951</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="25">
+        <v>2</v>
+      </c>
+      <c r="J33" s="12">
+        <v>43968</v>
+      </c>
+      <c r="K33" s="1">
+        <v>2</v>
+      </c>
+      <c r="M33" s="25">
+        <v>2</v>
+      </c>
+      <c r="N33" s="12">
+        <v>43968</v>
+      </c>
+      <c r="O33" s="1">
+        <v>1</v>
+      </c>
+      <c r="P33" s="12">
+        <v>43951</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="25">
+        <v>2</v>
+      </c>
+      <c r="J34" s="12">
+        <v>43968</v>
+      </c>
+      <c r="K34" s="1">
+        <v>3</v>
+      </c>
+      <c r="M34" s="24">
+        <v>1</v>
+      </c>
+      <c r="N34" s="12">
+        <v>43988</v>
+      </c>
+      <c r="O34" s="1">
+        <v>1</v>
+      </c>
+      <c r="P34" s="12">
+        <v>43955</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="27">
+        <v>4</v>
+      </c>
+      <c r="J35" s="12">
+        <v>43955</v>
+      </c>
+      <c r="K35" s="1">
+        <v>1</v>
+      </c>
+      <c r="M35" s="27">
+        <v>4</v>
+      </c>
+      <c r="N35" s="12">
+        <v>43955</v>
+      </c>
+      <c r="O35" s="1">
+        <v>3</v>
+      </c>
+      <c r="P35" s="12">
+        <v>43955</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="36" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="27">
+        <v>4</v>
+      </c>
+      <c r="J36" s="12">
+        <v>43955</v>
+      </c>
+      <c r="K36" s="1">
+        <v>3</v>
+      </c>
+      <c r="M36" s="25">
+        <v>2</v>
+      </c>
+      <c r="N36" s="12">
+        <v>43968</v>
+      </c>
+      <c r="O36" s="1">
+        <v>2</v>
+      </c>
+      <c r="P36" s="12">
+        <v>43962</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="M37" s="25">
+        <v>2</v>
+      </c>
+      <c r="N37" s="12">
+        <v>43968</v>
+      </c>
+      <c r="O37" s="1">
+        <v>3</v>
+      </c>
+      <c r="P37" s="12">
+        <v>43968</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="E38" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="F38" s="30"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="39"/>
+      <c r="I38" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="J38" s="30"/>
+      <c r="K38" s="30"/>
+      <c r="M38" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="N38" s="30"/>
+      <c r="O38" s="30"/>
+      <c r="P38" s="30"/>
+      <c r="Q38" s="30"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="M15:Q15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="61" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/RELATIONEN_GruppeA-WIESINGER-SCHADLER.xlsx
+++ b/RELATIONEN_GruppeA-WIESINGER-SCHADLER.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\source\repos\chrizz92\dbi_erd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28E5F85E-880C-4F56-896B-EAFF30E682F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2068294-761E-47AD-91EB-D8CB491A8B22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{26E05759-79D0-42AD-8440-BC669FF904E4}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="59">
   <si>
     <t>Schüler</t>
   </si>
@@ -209,6 +209,12 @@
   </si>
   <si>
     <t>AT411100000237571533</t>
+  </si>
+  <si>
+    <t>Referenz#</t>
+  </si>
+  <si>
+    <t>Annahme: Je Referenz wird ein Betrag pro Tag gebucht</t>
   </si>
 </sst>
 </file>
@@ -409,7 +415,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -510,18 +516,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -534,6 +528,56 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -902,25 +946,25 @@
       <c r="O2" s="30"/>
     </row>
     <row r="4" spans="2:17" ht="18" x14ac:dyDescent="0.35">
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="36"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="41"/>
       <c r="G4" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="37" t="s">
+      <c r="I4" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="M4" s="37" t="s">
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="M4" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="N4" s="37"/>
-      <c r="O4" s="37"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
     </row>
     <row r="5" spans="2:17" s="6" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
@@ -1168,10 +1212,10 @@
       <c r="K15" s="2"/>
     </row>
     <row r="16" spans="2:17" ht="18" x14ac:dyDescent="0.35">
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="37"/>
+      <c r="C16" s="42"/>
       <c r="D16" s="20"/>
       <c r="E16" s="21" t="s">
         <v>38</v>
@@ -1183,13 +1227,13 @@
       </c>
       <c r="J16" s="19"/>
       <c r="K16" s="19"/>
-      <c r="M16" s="34" t="s">
+      <c r="M16" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="N16" s="35"/>
-      <c r="O16" s="35"/>
-      <c r="P16" s="35"/>
-      <c r="Q16" s="36"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="40"/>
+      <c r="Q16" s="41"/>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B17" s="9" t="s">
@@ -1980,10 +2024,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:Q38"/>
+  <dimension ref="B1:S38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1996,18 +2040,20 @@
     <col min="6" max="6" width="11.88671875" style="3" customWidth="1"/>
     <col min="7" max="7" width="18.21875" style="3" customWidth="1"/>
     <col min="8" max="8" width="9.44140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="13" style="3" customWidth="1"/>
-    <col min="10" max="10" width="16.5546875" style="3" customWidth="1"/>
-    <col min="11" max="11" width="10.21875" style="3" customWidth="1"/>
-    <col min="12" max="12" width="23.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.5546875" style="3"/>
-    <col min="14" max="14" width="18.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.109375" style="3" customWidth="1"/>
-    <col min="16" max="16" width="13.88671875" style="3" customWidth="1"/>
-    <col min="17" max="16384" width="11.5546875" style="3"/>
+    <col min="9" max="9" width="15.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" style="3" customWidth="1"/>
+    <col min="11" max="11" width="16.5546875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="22.88671875" style="3" customWidth="1"/>
+    <col min="13" max="13" width="9.88671875" style="3" customWidth="1"/>
+    <col min="14" max="14" width="17" style="3" customWidth="1"/>
+    <col min="15" max="15" width="11.5546875" style="3"/>
+    <col min="16" max="16" width="10.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10" style="3" customWidth="1"/>
+    <col min="18" max="18" width="13.88671875" style="3" customWidth="1"/>
+    <col min="19" max="16384" width="11.5546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B1" s="30" t="s">
         <v>41</v>
       </c>
@@ -2024,31 +2070,35 @@
       <c r="M1" s="30"/>
       <c r="N1" s="30"/>
       <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-    </row>
-    <row r="3" spans="2:17" ht="18" x14ac:dyDescent="0.35">
-      <c r="B3" s="34" t="s">
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+    </row>
+    <row r="3" spans="2:18" ht="18" x14ac:dyDescent="0.35">
+      <c r="B3" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="36"/>
-      <c r="G3" s="37" t="s">
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="41"/>
+      <c r="G3" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="37"/>
-      <c r="J3" s="37" t="s">
+      <c r="H3" s="42"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="N3" s="37" t="s">
+      <c r="K3" s="54"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-    </row>
-    <row r="4" spans="2:17" s="6" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O3" s="54"/>
+      <c r="P3" s="56"/>
+    </row>
+    <row r="4" spans="2:18" s="6" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
@@ -2067,6 +2117,7 @@
       <c r="H4" s="5" t="s">
         <v>55</v>
       </c>
+      <c r="I4" s="16"/>
       <c r="J4" s="10" t="s">
         <v>21</v>
       </c>
@@ -2076,6 +2127,7 @@
       <c r="L4" s="5" t="s">
         <v>44</v>
       </c>
+      <c r="M4" s="16"/>
       <c r="N4" s="10" t="s">
         <v>23</v>
       </c>
@@ -2086,7 +2138,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
         <v>1</v>
       </c>
@@ -2105,15 +2157,17 @@
       <c r="H5" s="1" t="s">
         <v>48</v>
       </c>
+      <c r="I5" s="2"/>
       <c r="J5" s="1">
         <v>1</v>
       </c>
       <c r="K5" s="1">
         <v>2020</v>
       </c>
-      <c r="L5" s="38" t="s">
+      <c r="L5" s="34" t="s">
         <v>45</v>
       </c>
+      <c r="M5" s="52"/>
       <c r="N5" s="1">
         <v>1</v>
       </c>
@@ -2124,7 +2178,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
         <v>2</v>
       </c>
@@ -2140,18 +2194,20 @@
       <c r="G6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="41" t="s">
+      <c r="H6" s="37" t="s">
         <v>49</v>
       </c>
+      <c r="I6" s="43"/>
       <c r="J6" s="1">
         <v>3</v>
       </c>
       <c r="K6" s="1">
         <v>2020</v>
       </c>
-      <c r="L6" s="38" t="s">
+      <c r="L6" s="34" t="s">
         <v>56</v>
       </c>
+      <c r="M6" s="52"/>
       <c r="N6" s="1">
         <v>2</v>
       </c>
@@ -2162,7 +2218,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
         <v>3</v>
       </c>
@@ -2178,18 +2234,20 @@
       <c r="G7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="40" t="s">
+      <c r="H7" s="36" t="s">
         <v>47</v>
       </c>
+      <c r="I7" s="44"/>
       <c r="J7" s="1">
         <v>2</v>
       </c>
       <c r="K7" s="1">
         <v>2019</v>
       </c>
-      <c r="L7" s="38" t="s">
+      <c r="L7" s="34" t="s">
         <v>56</v>
       </c>
+      <c r="M7" s="52"/>
       <c r="N7" s="1">
         <v>3</v>
       </c>
@@ -2200,7 +2258,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -2208,18 +2266,20 @@
       <c r="G8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="41" t="s">
+      <c r="H8" s="37" t="s">
         <v>50</v>
       </c>
+      <c r="I8" s="43"/>
       <c r="J8" s="1">
         <v>1</v>
       </c>
       <c r="K8" s="1">
         <v>2019</v>
       </c>
-      <c r="L8" s="38" t="s">
+      <c r="L8" s="34" t="s">
         <v>45</v>
       </c>
+      <c r="M8" s="52"/>
       <c r="N8" s="1">
         <v>1</v>
       </c>
@@ -2230,7 +2290,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -2238,17 +2298,19 @@
       <c r="G9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="41" t="s">
+      <c r="H9" s="37" t="s">
         <v>52</v>
       </c>
+      <c r="I9" s="43"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
+      <c r="M9" s="2"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -2256,17 +2318,19 @@
       <c r="G10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="42" t="s">
+      <c r="H10" s="38" t="s">
         <v>51</v>
       </c>
+      <c r="I10" s="45"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
+      <c r="M10" s="53"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -2274,17 +2338,19 @@
       <c r="G11" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="42" t="s">
+      <c r="H11" s="38" t="s">
         <v>53</v>
       </c>
+      <c r="I11" s="45"/>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
+      <c r="M11" s="53"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -2292,39 +2358,44 @@
       <c r="G12" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="42" t="s">
+      <c r="H12" s="38" t="s">
         <v>54</v>
       </c>
+      <c r="I12" s="45"/>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
+      <c r="M12" s="53"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
       <c r="J13" s="29" t="s">
         <v>43</v>
       </c>
       <c r="K13" s="29"/>
       <c r="L13" s="29"/>
+      <c r="M13" s="53"/>
       <c r="N13" s="29" t="s">
         <v>43</v>
       </c>
       <c r="O13" s="30"/>
       <c r="P13" s="30"/>
       <c r="Q13" s="30"/>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="J14" s="2"/>
+      <c r="R13" s="35"/>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
-    </row>
-    <row r="15" spans="2:17" ht="18" x14ac:dyDescent="0.35">
-      <c r="B15" s="37" t="s">
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+    </row>
+    <row r="15" spans="2:18" ht="18" x14ac:dyDescent="0.35">
+      <c r="B15" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="37"/>
+      <c r="C15" s="42"/>
       <c r="D15" s="20"/>
       <c r="E15" s="31" t="s">
         <v>38</v>
@@ -2332,20 +2403,21 @@
       <c r="F15" s="32"/>
       <c r="G15" s="33"/>
       <c r="H15" s="20"/>
-      <c r="I15" s="34" t="s">
+      <c r="I15" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="J15" s="35"/>
-      <c r="K15" s="36"/>
-      <c r="M15" s="34" t="s">
+      <c r="J15" s="49"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="49"/>
+      <c r="N15" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="N15" s="35"/>
-      <c r="O15" s="35"/>
-      <c r="P15" s="35"/>
-      <c r="Q15" s="36"/>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="O15" s="49"/>
+      <c r="P15" s="49"/>
+      <c r="Q15" s="55"/>
+      <c r="R15" s="55"/>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B16" s="9" t="s">
         <v>27</v>
       </c>
@@ -2363,32 +2435,29 @@
         <v>35</v>
       </c>
       <c r="H16" s="2"/>
-      <c r="I16" s="10" t="s">
+      <c r="I16" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="J16" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="J16" s="13" t="s">
+      <c r="K16" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="K16" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="M16" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="N16" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="O16" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="P16" s="14" t="s">
+      <c r="L16" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="N16" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="O16" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="Q16" s="1" t="s">
+      <c r="P16" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B17" s="24">
         <v>1</v>
       </c>
@@ -2406,32 +2475,29 @@
         <v>5</v>
       </c>
       <c r="H17" s="2"/>
-      <c r="I17" s="24">
-        <v>1</v>
-      </c>
-      <c r="J17" s="12">
+      <c r="I17" s="51">
+        <v>100000000001</v>
+      </c>
+      <c r="J17" s="24">
+        <v>1</v>
+      </c>
+      <c r="K17" s="12">
         <v>43896</v>
       </c>
-      <c r="K17" s="1">
-        <v>1</v>
-      </c>
-      <c r="M17" s="24">
-        <v>1</v>
-      </c>
-      <c r="N17" s="12">
-        <v>43896</v>
-      </c>
-      <c r="O17" s="1">
-        <v>1</v>
-      </c>
-      <c r="P17" s="12">
+      <c r="L17" s="1">
+        <v>1</v>
+      </c>
+      <c r="N17" s="51">
+        <v>100000000001</v>
+      </c>
+      <c r="O17" s="12">
         <v>43888</v>
       </c>
-      <c r="Q17" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="P17" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B18" s="25">
         <v>2</v>
       </c>
@@ -2449,32 +2515,29 @@
         <v>5</v>
       </c>
       <c r="H18" s="2"/>
-      <c r="I18" s="24">
-        <v>1</v>
-      </c>
-      <c r="J18" s="12">
+      <c r="I18" s="51">
+        <v>100000000002</v>
+      </c>
+      <c r="J18" s="24">
+        <v>1</v>
+      </c>
+      <c r="K18" s="12">
         <v>43927</v>
       </c>
-      <c r="K18" s="1">
-        <v>1</v>
-      </c>
-      <c r="M18" s="24">
-        <v>1</v>
-      </c>
-      <c r="N18" s="12">
-        <v>43896</v>
-      </c>
-      <c r="O18" s="1">
-        <v>2</v>
-      </c>
-      <c r="P18" s="12">
+      <c r="L18" s="1">
+        <v>1</v>
+      </c>
+      <c r="N18" s="51">
+        <v>100000000005</v>
+      </c>
+      <c r="O18" s="12">
         <v>43888</v>
       </c>
-      <c r="Q18" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="P18" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B19" s="26">
         <v>3</v>
       </c>
@@ -2492,32 +2555,29 @@
         <v>5</v>
       </c>
       <c r="H19" s="2"/>
-      <c r="I19" s="24">
-        <v>1</v>
-      </c>
-      <c r="J19" s="18">
+      <c r="I19" s="51">
+        <v>100000000003</v>
+      </c>
+      <c r="J19" s="24">
+        <v>1</v>
+      </c>
+      <c r="K19" s="18">
         <v>43957</v>
       </c>
-      <c r="K19" s="1">
-        <v>1</v>
-      </c>
-      <c r="M19" s="28">
-        <v>1</v>
-      </c>
-      <c r="N19" s="18">
-        <v>43896</v>
-      </c>
-      <c r="O19" s="11">
-        <v>3</v>
-      </c>
-      <c r="P19" s="12">
+      <c r="L19" s="1">
+        <v>1</v>
+      </c>
+      <c r="N19" s="51">
+        <v>100000000009</v>
+      </c>
+      <c r="O19" s="12">
         <v>43892</v>
       </c>
-      <c r="Q19" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="P19" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B20" s="27">
         <v>4</v>
       </c>
@@ -2535,32 +2595,29 @@
         <v>5</v>
       </c>
       <c r="H20" s="2"/>
-      <c r="I20" s="24">
-        <v>1</v>
-      </c>
-      <c r="J20" s="12">
+      <c r="I20" s="51">
+        <v>100000000004</v>
+      </c>
+      <c r="J20" s="24">
+        <v>1</v>
+      </c>
+      <c r="K20" s="12">
         <v>43988</v>
       </c>
-      <c r="K20" s="1">
-        <v>1</v>
-      </c>
-      <c r="M20" s="26">
-        <v>3</v>
-      </c>
-      <c r="N20" s="12">
-        <v>43896</v>
-      </c>
-      <c r="O20" s="1">
-        <v>1</v>
-      </c>
-      <c r="P20" s="12">
+      <c r="L20" s="1">
+        <v>1</v>
+      </c>
+      <c r="N20" s="51">
+        <v>100000000013</v>
+      </c>
+      <c r="O20" s="12">
         <v>43893</v>
       </c>
-      <c r="Q20" s="1">
+      <c r="P20" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="E21" s="25">
@@ -2573,32 +2630,29 @@
         <v>38</v>
       </c>
       <c r="H21" s="2"/>
-      <c r="I21" s="24">
-        <v>1</v>
-      </c>
-      <c r="J21" s="12">
+      <c r="I21" s="51">
+        <v>100000000005</v>
+      </c>
+      <c r="J21" s="24">
+        <v>1</v>
+      </c>
+      <c r="K21" s="12">
         <v>43896</v>
       </c>
-      <c r="K21" s="1">
-        <v>2</v>
-      </c>
-      <c r="M21" s="26">
-        <v>3</v>
-      </c>
-      <c r="N21" s="12">
+      <c r="L21" s="1">
+        <v>2</v>
+      </c>
+      <c r="N21" s="51">
+        <v>100000000014</v>
+      </c>
+      <c r="O21" s="12">
         <v>43896</v>
       </c>
-      <c r="O21" s="1">
-        <v>2</v>
-      </c>
-      <c r="P21" s="12">
-        <v>43896</v>
-      </c>
-      <c r="Q21" s="1">
+      <c r="P21" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="E22" s="26">
@@ -2611,32 +2665,29 @@
         <v>25</v>
       </c>
       <c r="H22" s="2"/>
-      <c r="I22" s="24">
-        <v>1</v>
-      </c>
-      <c r="J22" s="12">
+      <c r="I22" s="51">
+        <v>100000000006</v>
+      </c>
+      <c r="J22" s="24">
+        <v>1</v>
+      </c>
+      <c r="K22" s="12">
         <v>43927</v>
       </c>
-      <c r="K22" s="1">
-        <v>2</v>
-      </c>
-      <c r="M22" s="26">
-        <v>3</v>
-      </c>
-      <c r="N22" s="12">
+      <c r="L22" s="1">
+        <v>2</v>
+      </c>
+      <c r="N22" s="51">
+        <v>100000000015</v>
+      </c>
+      <c r="O22" s="12">
         <v>43896</v>
       </c>
-      <c r="O22" s="1">
-        <v>3</v>
-      </c>
-      <c r="P22" s="12">
-        <v>43896</v>
-      </c>
-      <c r="Q22" s="1">
+      <c r="P22" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="E23" s="27">
@@ -2649,504 +2700,457 @@
         <v>240</v>
       </c>
       <c r="H23" s="2"/>
-      <c r="I23" s="24">
-        <v>1</v>
-      </c>
-      <c r="J23" s="18">
+      <c r="I23" s="51">
+        <v>100000000007</v>
+      </c>
+      <c r="J23" s="24">
+        <v>1</v>
+      </c>
+      <c r="K23" s="18">
         <v>43957</v>
       </c>
-      <c r="K23" s="1">
-        <v>2</v>
-      </c>
-      <c r="M23" s="24">
-        <v>1</v>
-      </c>
-      <c r="N23" s="12">
-        <v>43927</v>
-      </c>
-      <c r="O23" s="1">
-        <v>1</v>
-      </c>
-      <c r="P23" s="12">
+      <c r="L23" s="1">
+        <v>2</v>
+      </c>
+      <c r="N23" s="51">
+        <v>100000000002</v>
+      </c>
+      <c r="O23" s="12">
         <v>43906</v>
       </c>
-      <c r="Q23" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="P23" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="2"/>
-      <c r="I24" s="24">
-        <v>1</v>
-      </c>
-      <c r="J24" s="12">
+      <c r="I24" s="51">
+        <v>100000000008</v>
+      </c>
+      <c r="J24" s="24">
+        <v>1</v>
+      </c>
+      <c r="K24" s="12">
         <v>43988</v>
       </c>
-      <c r="K24" s="1">
-        <v>2</v>
-      </c>
-      <c r="M24" s="24">
-        <v>1</v>
-      </c>
-      <c r="N24" s="12">
-        <v>43927</v>
-      </c>
-      <c r="O24" s="1">
-        <v>2</v>
-      </c>
-      <c r="P24" s="12">
+      <c r="L24" s="1">
+        <v>2</v>
+      </c>
+      <c r="N24" s="51">
+        <v>100000000006</v>
+      </c>
+      <c r="O24" s="12">
         <v>43920</v>
       </c>
-      <c r="Q24" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="P24" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="2"/>
-      <c r="I25" s="24">
-        <v>1</v>
-      </c>
-      <c r="J25" s="12">
+      <c r="I25" s="51">
+        <v>100000000009</v>
+      </c>
+      <c r="J25" s="24">
+        <v>1</v>
+      </c>
+      <c r="K25" s="12">
         <v>43896</v>
       </c>
-      <c r="K25" s="1">
-        <v>3</v>
-      </c>
-      <c r="M25" s="25">
-        <v>2</v>
-      </c>
-      <c r="N25" s="12">
-        <v>43968</v>
-      </c>
-      <c r="O25" s="1">
-        <v>2</v>
-      </c>
-      <c r="P25" s="12">
+      <c r="L25" s="1">
+        <v>3</v>
+      </c>
+      <c r="N25" s="51">
+        <v>100000000017</v>
+      </c>
+      <c r="O25" s="12">
         <v>43927</v>
       </c>
-      <c r="Q25" s="1">
+      <c r="P25" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="2"/>
-      <c r="I26" s="24">
-        <v>1</v>
-      </c>
-      <c r="J26" s="12">
+      <c r="I26" s="51">
+        <v>100000000010</v>
+      </c>
+      <c r="J26" s="24">
+        <v>1</v>
+      </c>
+      <c r="K26" s="12">
         <v>43927</v>
       </c>
-      <c r="K26" s="1">
-        <v>3</v>
-      </c>
-      <c r="M26" s="24">
-        <v>1</v>
-      </c>
-      <c r="N26" s="12">
+      <c r="L26" s="1">
+        <v>3</v>
+      </c>
+      <c r="N26" s="51">
+        <v>100000000010</v>
+      </c>
+      <c r="O26" s="12">
         <v>43927</v>
       </c>
-      <c r="O26" s="1">
-        <v>3</v>
-      </c>
-      <c r="P26" s="12">
-        <v>43927</v>
-      </c>
-      <c r="Q26" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="P26" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="2"/>
-      <c r="I27" s="24">
-        <v>1</v>
-      </c>
-      <c r="J27" s="18">
+      <c r="I27" s="51">
+        <v>100000000011</v>
+      </c>
+      <c r="J27" s="24">
+        <v>1</v>
+      </c>
+      <c r="K27" s="18">
         <v>43957</v>
       </c>
-      <c r="K27" s="1">
-        <v>3</v>
-      </c>
-      <c r="M27" s="24">
-        <v>1</v>
-      </c>
-      <c r="N27" s="12">
-        <v>43957</v>
-      </c>
-      <c r="O27" s="1">
-        <v>1</v>
-      </c>
-      <c r="P27" s="12">
+      <c r="L27" s="1">
+        <v>3</v>
+      </c>
+      <c r="N27" s="51">
+        <v>100000000003</v>
+      </c>
+      <c r="O27" s="12">
         <v>43927</v>
       </c>
-      <c r="Q27" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="P27" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="2"/>
-      <c r="I28" s="24">
-        <v>1</v>
-      </c>
-      <c r="J28" s="12">
+      <c r="I28" s="51">
+        <v>100000000012</v>
+      </c>
+      <c r="J28" s="24">
+        <v>1</v>
+      </c>
+      <c r="K28" s="12">
         <v>43988</v>
       </c>
-      <c r="K28" s="1">
-        <v>3</v>
-      </c>
-      <c r="M28" s="24">
-        <v>1</v>
-      </c>
-      <c r="N28" s="12">
-        <v>43957</v>
-      </c>
-      <c r="O28" s="1">
-        <v>3</v>
-      </c>
-      <c r="P28" s="12">
+      <c r="L28" s="1">
+        <v>3</v>
+      </c>
+      <c r="N28" s="51">
+        <v>100000000011</v>
+      </c>
+      <c r="O28" s="12">
         <v>43934</v>
       </c>
-      <c r="Q28" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="P28" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="2"/>
-      <c r="I29" s="26">
-        <v>3</v>
-      </c>
-      <c r="J29" s="12">
+      <c r="I29" s="51">
+        <v>100000000013</v>
+      </c>
+      <c r="J29" s="26">
+        <v>3</v>
+      </c>
+      <c r="K29" s="12">
         <v>43896</v>
       </c>
-      <c r="K29" s="1">
-        <v>1</v>
-      </c>
-      <c r="M29" s="24">
-        <v>1</v>
-      </c>
-      <c r="N29" s="12">
-        <v>43957</v>
-      </c>
-      <c r="O29" s="1">
-        <v>2</v>
-      </c>
-      <c r="P29" s="12">
+      <c r="L29" s="1">
+        <v>1</v>
+      </c>
+      <c r="N29" s="51">
+        <v>100000000007</v>
+      </c>
+      <c r="O29" s="12">
         <v>43955</v>
       </c>
-      <c r="Q29" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="P29" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="2"/>
-      <c r="I30" s="26">
-        <v>3</v>
-      </c>
-      <c r="J30" s="12">
+      <c r="I30" s="51">
+        <v>100000000014</v>
+      </c>
+      <c r="J30" s="26">
+        <v>3</v>
+      </c>
+      <c r="K30" s="12">
         <v>43896</v>
       </c>
-      <c r="K30" s="1">
-        <v>2</v>
-      </c>
-      <c r="M30" s="24">
-        <v>1</v>
-      </c>
-      <c r="N30" s="12">
-        <v>43988</v>
-      </c>
-      <c r="O30" s="1">
-        <v>3</v>
-      </c>
-      <c r="P30" s="12">
+      <c r="L30" s="1">
+        <v>2</v>
+      </c>
+      <c r="N30" s="51">
+        <v>100000000012</v>
+      </c>
+      <c r="O30" s="12">
         <v>43955</v>
       </c>
-      <c r="Q30" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="P30" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="2"/>
-      <c r="I31" s="26">
-        <v>3</v>
-      </c>
-      <c r="J31" s="12">
+      <c r="I31" s="51">
+        <v>100000000015</v>
+      </c>
+      <c r="J31" s="26">
+        <v>3</v>
+      </c>
+      <c r="K31" s="12">
         <v>43896</v>
       </c>
-      <c r="K31" s="1">
-        <v>3</v>
-      </c>
-      <c r="M31" s="24">
-        <v>1</v>
-      </c>
-      <c r="N31" s="12">
-        <v>43988</v>
-      </c>
-      <c r="O31" s="1">
-        <v>2</v>
-      </c>
-      <c r="P31" s="12">
+      <c r="L31" s="1">
+        <v>3</v>
+      </c>
+      <c r="N31" s="51">
+        <v>100000000008</v>
+      </c>
+      <c r="O31" s="12">
         <v>43968</v>
       </c>
-      <c r="Q31" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="P31" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="2"/>
-      <c r="I32" s="25">
-        <v>2</v>
-      </c>
-      <c r="J32" s="12">
+      <c r="I32" s="51">
+        <v>100000000016</v>
+      </c>
+      <c r="J32" s="25">
+        <v>2</v>
+      </c>
+      <c r="K32" s="12">
         <v>43968</v>
       </c>
-      <c r="K32" s="1">
-        <v>1</v>
-      </c>
-      <c r="M32" s="27">
-        <v>4</v>
-      </c>
-      <c r="N32" s="12">
-        <v>43955</v>
-      </c>
-      <c r="O32" s="1">
-        <v>1</v>
-      </c>
-      <c r="P32" s="12">
+      <c r="L32" s="1">
+        <v>1</v>
+      </c>
+      <c r="N32" s="51">
+        <v>100000000019</v>
+      </c>
+      <c r="O32" s="12">
         <v>43951</v>
       </c>
-      <c r="Q32" s="1">
+      <c r="P32" s="1">
         <v>240</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="2"/>
-      <c r="I33" s="25">
-        <v>2</v>
-      </c>
-      <c r="J33" s="12">
+      <c r="I33" s="51">
+        <v>100000000017</v>
+      </c>
+      <c r="J33" s="25">
+        <v>2</v>
+      </c>
+      <c r="K33" s="12">
         <v>43968</v>
       </c>
-      <c r="K33" s="1">
-        <v>2</v>
-      </c>
-      <c r="M33" s="25">
-        <v>2</v>
-      </c>
-      <c r="N33" s="12">
-        <v>43968</v>
-      </c>
-      <c r="O33" s="1">
-        <v>1</v>
-      </c>
-      <c r="P33" s="12">
+      <c r="L33" s="1">
+        <v>2</v>
+      </c>
+      <c r="N33" s="51">
+        <v>100000000016</v>
+      </c>
+      <c r="O33" s="12">
         <v>43951</v>
       </c>
-      <c r="Q33" s="1">
+      <c r="P33" s="1">
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="2"/>
-      <c r="I34" s="25">
-        <v>2</v>
-      </c>
-      <c r="J34" s="12">
+      <c r="I34" s="51">
+        <v>100000000018</v>
+      </c>
+      <c r="J34" s="25">
+        <v>2</v>
+      </c>
+      <c r="K34" s="12">
         <v>43968</v>
       </c>
-      <c r="K34" s="1">
-        <v>3</v>
-      </c>
-      <c r="M34" s="24">
-        <v>1</v>
-      </c>
-      <c r="N34" s="12">
-        <v>43988</v>
-      </c>
-      <c r="O34" s="1">
-        <v>1</v>
-      </c>
-      <c r="P34" s="12">
+      <c r="L34" s="1">
+        <v>3</v>
+      </c>
+      <c r="N34" s="51">
+        <v>100000000004</v>
+      </c>
+      <c r="O34" s="12">
         <v>43955</v>
       </c>
-      <c r="Q34" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="P34" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="2"/>
-      <c r="I35" s="27">
+      <c r="I35" s="51">
+        <v>100000000019</v>
+      </c>
+      <c r="J35" s="27">
         <v>4</v>
       </c>
-      <c r="J35" s="12">
+      <c r="K35" s="12">
         <v>43955</v>
       </c>
-      <c r="K35" s="1">
-        <v>1</v>
-      </c>
-      <c r="M35" s="27">
-        <v>4</v>
-      </c>
-      <c r="N35" s="12">
+      <c r="L35" s="1">
+        <v>1</v>
+      </c>
+      <c r="N35" s="51">
+        <v>100000000020</v>
+      </c>
+      <c r="O35" s="12">
         <v>43955</v>
       </c>
-      <c r="O35" s="1">
-        <v>3</v>
-      </c>
-      <c r="P35" s="12">
-        <v>43955</v>
-      </c>
-      <c r="Q35" s="1">
+      <c r="P35" s="1">
         <v>240</v>
       </c>
     </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="2"/>
-      <c r="I36" s="27">
+      <c r="I36" s="51">
+        <v>100000000020</v>
+      </c>
+      <c r="J36" s="27">
         <v>4</v>
       </c>
-      <c r="J36" s="12">
+      <c r="K36" s="12">
         <v>43955</v>
       </c>
-      <c r="K36" s="1">
-        <v>3</v>
-      </c>
-      <c r="M36" s="25">
-        <v>2</v>
-      </c>
-      <c r="N36" s="12">
-        <v>43968</v>
-      </c>
-      <c r="O36" s="1">
-        <v>2</v>
-      </c>
-      <c r="P36" s="12">
+      <c r="L36" s="1">
+        <v>3</v>
+      </c>
+      <c r="N36" s="51">
+        <v>100000000017</v>
+      </c>
+      <c r="O36" s="12">
         <v>43962</v>
       </c>
-      <c r="Q36" s="1">
+      <c r="P36" s="1">
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="2"/>
-      <c r="I37" s="1"/>
+      <c r="I37" s="50"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
-      <c r="M37" s="25">
-        <v>2</v>
-      </c>
-      <c r="N37" s="12">
+      <c r="L37" s="1"/>
+      <c r="N37" s="51">
+        <v>100000000018</v>
+      </c>
+      <c r="O37" s="12">
         <v>43968</v>
       </c>
-      <c r="O37" s="1">
-        <v>3</v>
-      </c>
-      <c r="P37" s="12">
-        <v>43968</v>
-      </c>
-      <c r="Q37" s="1">
+      <c r="P37" s="1">
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="E38" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="F38" s="30"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="39"/>
+    <row r="38" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="E38" s="35"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="35"/>
       <c r="I38" s="30" t="s">
         <v>40</v>
       </c>
       <c r="J38" s="30"/>
       <c r="K38" s="30"/>
-      <c r="M38" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="N38" s="30"/>
+      <c r="L38" s="35"/>
+      <c r="N38" s="30" t="s">
+        <v>58</v>
+      </c>
       <c r="O38" s="30"/>
       <c r="P38" s="30"/>
       <c r="Q38" s="30"/>
+      <c r="R38" s="35"/>
+      <c r="S38" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="N15:P15"/>
     <mergeCell ref="J3:L3"/>
     <mergeCell ref="N3:P3"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="M15:Q15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="61" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="61" orientation="landscape" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>